--- a/morphosource_batch_convert/sample_data/input_sample3.xlsx
+++ b/morphosource_batch_convert/sample_data/input_sample3.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
